--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:30:27+00:00</t>
+    <t>2024-01-25T17:55:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-25T17:55:23+00:00</t>
+    <t>2024-01-26T18:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T18:28:41+00:00</t>
+    <t>2024-01-29T09:55:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T09:55:10+00:00</t>
+    <t>2024-01-29T16:18:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T16:18:50+00:00</t>
+    <t>2024-01-29T17:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T17:19:23+00:00</t>
+    <t>2024-01-29T18:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T18:07:49+00:00</t>
+    <t>2024-01-29T18:45:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T18:45:36+00:00</t>
+    <t>2024-01-30T18:03:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T18:03:32+00:00</t>
+    <t>2024-01-30T19:10:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T19:10:16+00:00</t>
+    <t>2024-01-30T20:20:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T20:20:44+00:00</t>
+    <t>2024-01-30T20:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-30T20:36:49+00:00</t>
+    <t>2024-01-31T09:58:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T09:58:08+00:00</t>
+    <t>2024-01-31T13:01:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T13:01:24+00:00</t>
+    <t>2024-01-31T14:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T14:52:20+00:00</t>
+    <t>2024-01-31T15:44:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T15:44:28+00:00</t>
+    <t>2024-01-31T17:33:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:33:42+00:00</t>
+    <t>2024-01-31T17:34:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:34:59+00:00</t>
+    <t>2024-01-31T17:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T17:53:22+00:00</t>
+    <t>2024-02-01T09:35:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T09:35:36+00:00</t>
+    <t>2024-02-01T10:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T10:32:02+00:00</t>
+    <t>2024-02-01T10:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T10:54:31+00:00</t>
+    <t>2024-02-01T11:14:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T11:14:35+00:00</t>
+    <t>2024-02-01T13:00:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T13:00:03+00:00</t>
+    <t>2024-02-01T16:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T16:21:00+00:00</t>
+    <t>2024-02-01T16:42:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T16:42:37+00:00</t>
+    <t>2024-02-01T17:08:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T17:08:29+00:00</t>
+    <t>2024-02-01T17:43:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T17:43:36+00:00</t>
+    <t>2024-02-01T18:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-01T18:39:39+00:00</t>
+    <t>2024-02-02T08:32:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T08:32:51+00:00</t>
+    <t>2024-02-02T08:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T08:59:39+00:00</t>
+    <t>2024-02-02T10:38:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T10:38:11+00:00</t>
+    <t>2024-02-02T13:56:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T13:56:21+00:00</t>
+    <t>2024-02-02T16:42:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T16:42:05+00:00</t>
+    <t>2024-02-02T19:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T19:41:48+00:00</t>
+    <t>2024-02-02T21:16:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T21:16:55+00:00</t>
+    <t>2024-02-02T22:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T22:06:01+00:00</t>
+    <t>2024-02-02T22:50:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T22:50:29+00:00</t>
+    <t>2024-02-02T23:12:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7607" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8115" uniqueCount="919">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-02T23:12:26+00:00</t>
+    <t>2024-02-05T13:18:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2030,7 +2030,7 @@
 </t>
   </si>
   <si>
-    <t>adresseEJ (EJ) : Adresse géopostale du siège de l'entité juridique</t>
+    <t>adresseEJ : Adresse géopostale de l'entité juridique ou adresseEG : Adresse(s) géopostale(s) de l'entité géographique.</t>
   </si>
   <si>
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
@@ -2111,10 +2111,125 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J230-CommuneOM-ROR/FHIR/JDV-J230-CommuneOM-ROR</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J124-Commune/FHIR/JDV-J124-Commune</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation</t>
+  </si>
+  <si>
+    <t>ror-organization-geolocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {geolocation}
+</t>
+  </si>
+  <si>
+    <t>extension pour définir les données de géolocalisation de l'EG</t>
+  </si>
+  <si>
+    <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
+  </si>
+  <si>
+    <t>The extension can be further extended to include unique geolocation identifiers, confidence, altitude, etc.</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.id</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.extension:latitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>Latitude with WGS84 datum</t>
+  </si>
+  <si>
+    <t>Latitude. The value domain and the interpretation are the same as for the text of the latitude element in KML (see notes below).</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.extension:latitude.id</t>
+  </si>
+  <si>
+    <t>Organization.address.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.extension:latitude.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.extension:latitude.url</t>
+  </si>
+  <si>
+    <t>Organization.address.extension.extension.url</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.extension:latitude.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.address.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.extension:longitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>Longitude with WGS84 datum</t>
+  </si>
+  <si>
+    <t>Longitude. The value domain and the interpretation are the same as for the text of the longitude element in KML (see notes below).</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.extension:longitude.id</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.extension:longitude.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.extension:longitude.url</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.extension:longitude.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.extension:ror-confidence-geolocation</t>
+  </si>
+  <si>
+    <t>ror-confidence-geolocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-confidence-geolocation}
+</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre du ROR. Il s'agit d'une information supplémentaire pour signaler si la longitude et la latitude sont fiables.</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/geolocation</t>
+  </si>
+  <si>
+    <t>Organization.address.extension:ror-organization-geolocation.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>Organization.address.use</t>
@@ -2315,10 +2430,6 @@
   </si>
   <si>
     <t>Organization.address.line.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J219-TypeVoie-ROR/FHIR/JDV-J219-TypeVoie-ROR</t>
@@ -3103,7 +3214,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ235"/>
+  <dimension ref="A1:AJ251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3112,8 +3223,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="71.83984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.62109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="91.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="49.28125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="45.6484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -21510,9 +21621,11 @@
         <v>665</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="C180" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>666</v>
+      </c>
       <c r="D180" t="s" s="2">
         <v>72</v>
       </c>
@@ -21527,26 +21640,24 @@
         <v>72</v>
       </c>
       <c r="I180" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>161</v>
+        <v>667</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="N180" t="s" s="2">
-        <v>668</v>
-      </c>
-      <c r="O180" t="s" s="2">
-        <v>669</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
         <v>72</v>
       </c>
@@ -21558,7 +21669,7 @@
         <v>72</v>
       </c>
       <c r="T180" t="s" s="2">
-        <v>670</v>
+        <v>72</v>
       </c>
       <c r="U180" t="s" s="2">
         <v>72</v>
@@ -21570,13 +21681,13 @@
         <v>72</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>671</v>
+        <v>72</v>
       </c>
       <c r="Z180" t="s" s="2">
-        <v>672</v>
+        <v>72</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>72</v>
@@ -21594,27 +21705,27 @@
         <v>72</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>673</v>
+        <v>108</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH180" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI180" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>674</v>
+        <v>649</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21634,20 +21745,18 @@
         <v>72</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>675</v>
+        <v>96</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>677</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N181" s="2"/>
       <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
         <v>72</v>
@@ -21660,7 +21769,7 @@
         <v>72</v>
       </c>
       <c r="T181" t="s" s="2">
-        <v>678</v>
+        <v>72</v>
       </c>
       <c r="U181" t="s" s="2">
         <v>72</v>
@@ -21672,13 +21781,13 @@
         <v>72</v>
       </c>
       <c r="X181" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>679</v>
+        <v>72</v>
       </c>
       <c r="Z181" t="s" s="2">
-        <v>680</v>
+        <v>72</v>
       </c>
       <c r="AA181" t="s" s="2">
         <v>72</v>
@@ -21696,7 +21805,7 @@
         <v>72</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>681</v>
+        <v>98</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>73</v>
@@ -21705,18 +21814,18 @@
         <v>80</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21724,10 +21833,10 @@
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
-        <v>73</v>
+        <v>584</v>
       </c>
       <c r="G182" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H182" t="s" s="2">
         <v>72</v>
@@ -21736,23 +21845,19 @@
         <v>72</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>683</v>
+        <v>184</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>686</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
         <v>72</v>
       </c>
@@ -21764,7 +21869,7 @@
         <v>72</v>
       </c>
       <c r="T182" t="s" s="2">
-        <v>687</v>
+        <v>72</v>
       </c>
       <c r="U182" t="s" s="2">
         <v>72</v>
@@ -21788,50 +21893,52 @@
         <v>72</v>
       </c>
       <c r="AB182" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC182" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD182" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>688</v>
+        <v>108</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH182" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI182" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="C183" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>674</v>
+      </c>
       <c r="D183" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H183" t="s" s="2">
         <v>72</v>
@@ -21840,19 +21947,19 @@
         <v>72</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>476</v>
+        <v>104</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
@@ -21866,7 +21973,7 @@
         <v>72</v>
       </c>
       <c r="T183" t="s" s="2">
-        <v>692</v>
+        <v>72</v>
       </c>
       <c r="U183" t="s" s="2">
         <v>72</v>
@@ -21902,7 +22009,7 @@
         <v>72</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>693</v>
+        <v>108</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>73</v>
@@ -21914,15 +22021,15 @@
         <v>92</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>694</v>
+        <v>678</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -22019,10 +22126,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>695</v>
+        <v>679</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>695</v>
+        <v>680</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -22033,7 +22140,7 @@
         <v>73</v>
       </c>
       <c r="G185" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H185" t="s" s="2">
         <v>72</v>
@@ -22121,20 +22228,18 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C186" t="s" s="2">
-        <v>697</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G186" t="s" s="2">
         <v>80</v>
@@ -22149,22 +22254,24 @@
         <v>72</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>698</v>
+        <v>122</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>699</v>
+        <v>654</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="N186" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="N186" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="O186" s="2"/>
       <c r="P186" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>72</v>
+        <v>674</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>72</v>
@@ -22206,37 +22313,35 @@
         <v>72</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>108</v>
+        <v>658</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH186" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C187" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>684</v>
+      </c>
+      <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>80</v>
@@ -22251,13 +22356,13 @@
         <v>72</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>704</v>
+        <v>661</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>705</v>
+        <v>662</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -22308,37 +22413,37 @@
         <v>72</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>108</v>
+        <v>664</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH187" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI187" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>695</v>
+        <v>651</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="D188" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>80</v>
@@ -22353,15 +22458,17 @@
         <v>72</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>708</v>
+        <v>101</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="N188" s="2"/>
+        <v>689</v>
+      </c>
+      <c r="N188" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
         <v>72</v>
@@ -22427,14 +22534,12 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C189" t="s" s="2">
-        <v>712</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
         <v>72</v>
       </c>
@@ -22455,13 +22560,13 @@
         <v>72</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>713</v>
+        <v>95</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>714</v>
+        <v>96</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>715</v>
+        <v>97</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -22512,40 +22617,38 @@
         <v>72</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH189" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>716</v>
+        <v>691</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C190" t="s" s="2">
-        <v>717</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G190" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H190" t="s" s="2">
         <v>72</v>
@@ -22557,15 +22660,17 @@
         <v>72</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>718</v>
+        <v>101</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>719</v>
+        <v>102</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="N190" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N190" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O190" s="2"/>
       <c r="P190" t="s" s="2">
         <v>72</v>
@@ -22602,16 +22707,16 @@
         <v>72</v>
       </c>
       <c r="AB190" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC190" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD190" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>108</v>
@@ -22631,10 +22736,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>721</v>
+        <v>692</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>722</v>
+        <v>682</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22642,7 +22747,7 @@
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G191" t="s" s="2">
         <v>80</v>
@@ -22657,22 +22762,24 @@
         <v>72</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>96</v>
+        <v>654</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N191" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>72</v>
+        <v>687</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>72</v>
@@ -22714,10 +22821,10 @@
         <v>72</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>98</v>
+        <v>658</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>80</v>
@@ -22731,21 +22838,21 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>723</v>
+        <v>693</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>724</v>
+        <v>684</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G192" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H192" t="s" s="2">
         <v>72</v>
@@ -22757,17 +22864,15 @@
         <v>72</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>101</v>
+        <v>685</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>102</v>
+        <v>661</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="N192" s="2"/>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
         <v>72</v>
@@ -22804,47 +22909,49 @@
         <v>72</v>
       </c>
       <c r="AB192" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC192" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD192" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>108</v>
+        <v>664</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH192" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI192" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>725</v>
+        <v>694</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>726</v>
-      </c>
-      <c r="C193" s="2"/>
+        <v>651</v>
+      </c>
+      <c r="C193" t="s" s="2">
+        <v>695</v>
+      </c>
       <c r="D193" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>80</v>
@@ -22859,24 +22966,22 @@
         <v>72</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>122</v>
+        <v>696</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>654</v>
+        <v>184</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="N193" s="2"/>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q193" s="2"/>
       <c r="R193" t="s" s="2">
-        <v>727</v>
+        <v>72</v>
       </c>
       <c r="S193" t="s" s="2">
         <v>72</v>
@@ -22918,27 +23023,27 @@
         <v>72</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>658</v>
+        <v>108</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH193" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>728</v>
+        <v>698</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>729</v>
+        <v>653</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22946,7 +23051,7 @@
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G194" t="s" s="2">
         <v>80</v>
@@ -22961,22 +23066,24 @@
         <v>72</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>730</v>
+        <v>122</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N194" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="N194" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>72</v>
+        <v>699</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>72</v>
@@ -22994,51 +23101,53 @@
         <v>72</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y194" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y194" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z194" t="s" s="2">
-        <v>731</v>
+        <v>72</v>
       </c>
       <c r="AA194" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB194" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="AC194" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC194" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD194" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>733</v>
+        <v>72</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="C195" t="s" s="2">
-        <v>735</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
         <v>72</v>
       </c>
@@ -23047,7 +23156,7 @@
         <v>73</v>
       </c>
       <c r="G195" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H195" t="s" s="2">
         <v>72</v>
@@ -23059,7 +23168,7 @@
         <v>72</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>95</v>
+        <v>701</v>
       </c>
       <c r="L195" t="s" s="2">
         <v>661</v>
@@ -23092,13 +23201,13 @@
         <v>72</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>736</v>
+        <v>72</v>
       </c>
       <c r="Z195" t="s" s="2">
-        <v>737</v>
+        <v>72</v>
       </c>
       <c r="AA195" t="s" s="2">
         <v>72</v>
@@ -23133,14 +23242,12 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>738</v>
+        <v>702</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C196" t="s" s="2">
-        <v>739</v>
-      </c>
+        <v>702</v>
+      </c>
+      <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
         <v>72</v>
       </c>
@@ -23155,22 +23262,26 @@
         <v>72</v>
       </c>
       <c r="I196" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>740</v>
+        <v>161</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>741</v>
+        <v>703</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="N196" s="2"/>
-      <c r="O196" s="2"/>
+        <v>704</v>
+      </c>
+      <c r="N196" t="s" s="2">
+        <v>705</v>
+      </c>
+      <c r="O196" t="s" s="2">
+        <v>706</v>
+      </c>
       <c r="P196" t="s" s="2">
         <v>72</v>
       </c>
@@ -23182,7 +23293,7 @@
         <v>72</v>
       </c>
       <c r="T196" t="s" s="2">
-        <v>72</v>
+        <v>707</v>
       </c>
       <c r="U196" t="s" s="2">
         <v>72</v>
@@ -23194,13 +23305,13 @@
         <v>72</v>
       </c>
       <c r="X196" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>72</v>
+        <v>708</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>72</v>
+        <v>709</v>
       </c>
       <c r="AA196" t="s" s="2">
         <v>72</v>
@@ -23218,31 +23329,29 @@
         <v>72</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>108</v>
+        <v>710</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH196" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI196" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C197" t="s" s="2">
-        <v>744</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
         <v>72</v>
       </c>
@@ -23251,7 +23360,7 @@
         <v>73</v>
       </c>
       <c r="G197" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H197" t="s" s="2">
         <v>72</v>
@@ -23260,18 +23369,20 @@
         <v>72</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>745</v>
+        <v>161</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>746</v>
+        <v>712</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="N197" s="2"/>
+        <v>713</v>
+      </c>
+      <c r="N197" t="s" s="2">
+        <v>714</v>
+      </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
         <v>72</v>
@@ -23284,7 +23395,7 @@
         <v>72</v>
       </c>
       <c r="T197" t="s" s="2">
-        <v>72</v>
+        <v>715</v>
       </c>
       <c r="U197" t="s" s="2">
         <v>72</v>
@@ -23296,13 +23407,13 @@
         <v>72</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>72</v>
+        <v>716</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>72</v>
+        <v>717</v>
       </c>
       <c r="AA197" t="s" s="2">
         <v>72</v>
@@ -23320,31 +23431,29 @@
         <v>72</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>108</v>
+        <v>718</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH197" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI197" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>748</v>
+        <v>719</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C198" t="s" s="2">
-        <v>749</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
         <v>72</v>
       </c>
@@ -23353,7 +23462,7 @@
         <v>73</v>
       </c>
       <c r="G198" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H198" t="s" s="2">
         <v>72</v>
@@ -23362,19 +23471,23 @@
         <v>72</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>750</v>
+        <v>95</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="N198" s="2"/>
-      <c r="O198" s="2"/>
+        <v>721</v>
+      </c>
+      <c r="N198" t="s" s="2">
+        <v>722</v>
+      </c>
+      <c r="O198" t="s" s="2">
+        <v>723</v>
+      </c>
       <c r="P198" t="s" s="2">
         <v>72</v>
       </c>
@@ -23386,7 +23499,7 @@
         <v>72</v>
       </c>
       <c r="T198" t="s" s="2">
-        <v>72</v>
+        <v>724</v>
       </c>
       <c r="U198" t="s" s="2">
         <v>72</v>
@@ -23422,27 +23535,27 @@
         <v>72</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>108</v>
+        <v>725</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH198" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI198" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>753</v>
+        <v>726</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>753</v>
+        <v>726</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23453,7 +23566,7 @@
         <v>73</v>
       </c>
       <c r="G199" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H199" t="s" s="2">
         <v>72</v>
@@ -23462,18 +23575,20 @@
         <v>72</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K199" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>566</v>
+        <v>727</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N199" s="2"/>
+        <v>728</v>
+      </c>
+      <c r="N199" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
         <v>72</v>
@@ -23486,7 +23601,7 @@
         <v>72</v>
       </c>
       <c r="T199" t="s" s="2">
-        <v>72</v>
+        <v>729</v>
       </c>
       <c r="U199" t="s" s="2">
         <v>72</v>
@@ -23495,7 +23610,7 @@
         <v>72</v>
       </c>
       <c r="W199" t="s" s="2">
-        <v>567</v>
+        <v>72</v>
       </c>
       <c r="X199" t="s" s="2">
         <v>72</v>
@@ -23522,31 +23637,31 @@
         <v>72</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>568</v>
+        <v>730</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH199" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>755</v>
+        <v>72</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
@@ -23562,20 +23677,18 @@
         <v>72</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K200" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>756</v>
+        <v>96</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N200" s="2"/>
       <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
         <v>72</v>
@@ -23588,7 +23701,7 @@
         <v>72</v>
       </c>
       <c r="T200" t="s" s="2">
-        <v>758</v>
+        <v>72</v>
       </c>
       <c r="U200" t="s" s="2">
         <v>72</v>
@@ -23624,7 +23737,7 @@
         <v>72</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>759</v>
+        <v>98</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>73</v>
@@ -23633,29 +23746,29 @@
         <v>80</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
-        <v>761</v>
+        <v>100</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G201" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H201" t="s" s="2">
         <v>72</v>
@@ -23664,19 +23777,19 @@
         <v>72</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>762</v>
+        <v>102</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>763</v>
+        <v>103</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>764</v>
+        <v>104</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -23690,7 +23803,7 @@
         <v>72</v>
       </c>
       <c r="T201" t="s" s="2">
-        <v>765</v>
+        <v>72</v>
       </c>
       <c r="U201" t="s" s="2">
         <v>72</v>
@@ -23714,43 +23827,45 @@
         <v>72</v>
       </c>
       <c r="AB201" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC201" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD201" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>766</v>
+        <v>108</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH201" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI201" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>767</v>
+        <v>733</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>767</v>
-      </c>
-      <c r="C202" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="C202" t="s" s="2">
+        <v>734</v>
+      </c>
       <c r="D202" t="s" s="2">
-        <v>768</v>
+        <v>72</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" t="s" s="2">
@@ -23766,20 +23881,18 @@
         <v>72</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>95</v>
+        <v>735</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>769</v>
+        <v>736</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>770</v>
-      </c>
-      <c r="N202" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>737</v>
+      </c>
+      <c r="N202" s="2"/>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
         <v>72</v>
@@ -23828,31 +23941,33 @@
         <v>72</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>771</v>
+        <v>108</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH202" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI202" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>772</v>
+        <v>738</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>772</v>
-      </c>
-      <c r="C203" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="C203" t="s" s="2">
+        <v>739</v>
+      </c>
       <c r="D203" t="s" s="2">
-        <v>773</v>
+        <v>72</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" t="s" s="2">
@@ -23868,20 +23983,18 @@
         <v>72</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>95</v>
+        <v>740</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>774</v>
+        <v>741</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>775</v>
-      </c>
-      <c r="N203" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="N203" s="2"/>
       <c r="O203" s="2"/>
       <c r="P203" t="s" s="2">
         <v>72</v>
@@ -23894,7 +24007,7 @@
         <v>72</v>
       </c>
       <c r="T203" t="s" s="2">
-        <v>776</v>
+        <v>72</v>
       </c>
       <c r="U203" t="s" s="2">
         <v>72</v>
@@ -23930,29 +24043,31 @@
         <v>72</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>777</v>
+        <v>108</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH203" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI203" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>778</v>
+        <v>743</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="C204" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="C204" t="s" s="2">
+        <v>744</v>
+      </c>
       <c r="D204" t="s" s="2">
         <v>72</v>
       </c>
@@ -23970,20 +24085,18 @@
         <v>72</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>95</v>
+        <v>745</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>779</v>
+        <v>746</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>780</v>
-      </c>
-      <c r="N204" t="s" s="2">
-        <v>781</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="N204" s="2"/>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
         <v>72</v>
@@ -24032,29 +24145,31 @@
         <v>72</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>782</v>
+        <v>108</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>783</v>
+        <v>748</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="C205" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="C205" t="s" s="2">
+        <v>749</v>
+      </c>
       <c r="D205" t="s" s="2">
         <v>72</v>
       </c>
@@ -24072,23 +24187,19 @@
         <v>72</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>322</v>
+        <v>750</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>784</v>
+        <v>751</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>785</v>
-      </c>
-      <c r="N205" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O205" t="s" s="2">
-        <v>786</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="N205" s="2"/>
+      <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
         <v>72</v>
       </c>
@@ -24100,7 +24211,7 @@
         <v>72</v>
       </c>
       <c r="T205" t="s" s="2">
-        <v>787</v>
+        <v>72</v>
       </c>
       <c r="U205" t="s" s="2">
         <v>72</v>
@@ -24136,29 +24247,31 @@
         <v>72</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>788</v>
+        <v>108</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI205" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>327</v>
+        <v>109</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>789</v>
+        <v>753</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>789</v>
-      </c>
-      <c r="C206" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="C206" t="s" s="2">
+        <v>754</v>
+      </c>
       <c r="D206" t="s" s="2">
         <v>72</v>
       </c>
@@ -24176,23 +24289,19 @@
         <v>72</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>790</v>
+        <v>755</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>791</v>
+        <v>756</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>792</v>
-      </c>
-      <c r="N206" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="O206" t="s" s="2">
-        <v>794</v>
-      </c>
+        <v>757</v>
+      </c>
+      <c r="N206" s="2"/>
+      <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
         <v>72</v>
       </c>
@@ -24240,27 +24349,27 @@
         <v>72</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>789</v>
+        <v>108</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>334</v>
+        <v>109</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>795</v>
+        <v>758</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>795</v>
+        <v>759</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -24357,10 +24466,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>796</v>
+        <v>760</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>796</v>
+        <v>761</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -24459,10 +24568,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>797</v>
+        <v>762</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>797</v>
+        <v>763</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24470,7 +24579,7 @@
       </c>
       <c r="E209" s="2"/>
       <c r="F209" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>80</v>
@@ -24482,19 +24591,19 @@
         <v>72</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>798</v>
+        <v>654</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>799</v>
+        <v>655</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>800</v>
+        <v>656</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -24502,7 +24611,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>72</v>
+        <v>764</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>72</v>
@@ -24544,27 +24653,27 @@
         <v>72</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>801</v>
+        <v>658</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>802</v>
+        <v>72</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>803</v>
+        <v>765</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>803</v>
+        <v>766</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24584,20 +24693,18 @@
         <v>72</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>122</v>
+        <v>701</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>804</v>
+        <v>661</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>805</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>806</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="N210" s="2"/>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
         <v>72</v>
@@ -24622,31 +24729,27 @@
         <v>72</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y210" t="s" s="2">
-        <v>807</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="Y210" s="2"/>
       <c r="Z210" t="s" s="2">
-        <v>442</v>
+        <v>767</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB210" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC210" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="AC210" s="2"/>
       <c r="AD210" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>72</v>
+        <v>769</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>808</v>
+        <v>664</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>73</v>
@@ -24663,12 +24766,14 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>809</v>
+        <v>770</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>809</v>
-      </c>
-      <c r="C211" s="2"/>
+        <v>766</v>
+      </c>
+      <c r="C211" t="s" s="2">
+        <v>771</v>
+      </c>
       <c r="D211" t="s" s="2">
         <v>72</v>
       </c>
@@ -24686,20 +24791,18 @@
         <v>72</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>283</v>
+        <v>95</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>810</v>
+        <v>661</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>812</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="N211" s="2"/>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
         <v>72</v>
@@ -24724,13 +24827,13 @@
         <v>72</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>72</v>
+        <v>772</v>
       </c>
       <c r="Z211" t="s" s="2">
-        <v>72</v>
+        <v>773</v>
       </c>
       <c r="AA211" t="s" s="2">
         <v>72</v>
@@ -24748,7 +24851,7 @@
         <v>72</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>813</v>
+        <v>664</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>73</v>
@@ -24765,12 +24868,14 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>814</v>
+        <v>774</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>814</v>
-      </c>
-      <c r="C212" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="C212" t="s" s="2">
+        <v>775</v>
+      </c>
       <c r="D212" t="s" s="2">
         <v>72</v>
       </c>
@@ -24788,20 +24893,18 @@
         <v>72</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>95</v>
+        <v>776</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>815</v>
+        <v>777</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>816</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>817</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="N212" s="2"/>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>72</v>
@@ -24850,29 +24953,31 @@
         <v>72</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>818</v>
+        <v>108</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH212" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI212" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>819</v>
+        <v>779</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="C213" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="C213" t="s" s="2">
+        <v>780</v>
+      </c>
       <c r="D213" t="s" s="2">
         <v>72</v>
       </c>
@@ -24893,20 +24998,16 @@
         <v>72</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>820</v>
+        <v>781</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>821</v>
+        <v>782</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>824</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
         <v>72</v>
       </c>
@@ -24954,7 +25055,7 @@
         <v>72</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>819</v>
+        <v>108</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>73</v>
@@ -24966,17 +25067,19 @@
         <v>92</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>825</v>
+        <v>784</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="C214" s="2"/>
+        <v>732</v>
+      </c>
+      <c r="C214" t="s" s="2">
+        <v>785</v>
+      </c>
       <c r="D214" t="s" s="2">
         <v>72</v>
       </c>
@@ -24985,7 +25088,7 @@
         <v>73</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>72</v>
@@ -24997,13 +25100,13 @@
         <v>72</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>95</v>
+        <v>786</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>96</v>
+        <v>787</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>97</v>
+        <v>788</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -25054,38 +25157,38 @@
         <v>72</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>826</v>
+        <v>789</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>826</v>
+        <v>789</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G215" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H215" t="s" s="2">
         <v>72</v>
@@ -25097,17 +25200,15 @@
         <v>72</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>102</v>
+        <v>566</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N215" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="N215" s="2"/>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
         <v>72</v>
@@ -25129,7 +25230,7 @@
         <v>72</v>
       </c>
       <c r="W215" t="s" s="2">
-        <v>72</v>
+        <v>567</v>
       </c>
       <c r="X215" t="s" s="2">
         <v>72</v>
@@ -25144,45 +25245,43 @@
         <v>72</v>
       </c>
       <c r="AB215" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC215" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD215" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>108</v>
+        <v>568</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH215" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>827</v>
+        <v>790</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="C216" t="s" s="2">
-        <v>828</v>
-      </c>
+        <v>790</v>
+      </c>
+      <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
-        <v>72</v>
+        <v>791</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
@@ -25198,18 +25297,20 @@
         <v>72</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>829</v>
+        <v>95</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>830</v>
+        <v>792</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="N216" s="2"/>
+        <v>793</v>
+      </c>
+      <c r="N216" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
         <v>72</v>
@@ -25222,7 +25323,7 @@
         <v>72</v>
       </c>
       <c r="T216" t="s" s="2">
-        <v>72</v>
+        <v>794</v>
       </c>
       <c r="U216" t="s" s="2">
         <v>72</v>
@@ -25258,33 +25359,31 @@
         <v>72</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>108</v>
+        <v>795</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI216" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>832</v>
+        <v>796</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="C217" t="s" s="2">
-        <v>833</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
-        <v>72</v>
+        <v>797</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" t="s" s="2">
@@ -25300,18 +25399,20 @@
         <v>72</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>834</v>
+        <v>95</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>835</v>
+        <v>798</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>836</v>
-      </c>
-      <c r="N217" s="2"/>
+        <v>799</v>
+      </c>
+      <c r="N217" t="s" s="2">
+        <v>800</v>
+      </c>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
         <v>72</v>
@@ -25324,7 +25425,7 @@
         <v>72</v>
       </c>
       <c r="T217" t="s" s="2">
-        <v>72</v>
+        <v>801</v>
       </c>
       <c r="U217" t="s" s="2">
         <v>72</v>
@@ -25360,33 +25461,31 @@
         <v>72</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>108</v>
+        <v>802</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI217" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="C218" t="s" s="2">
-        <v>838</v>
-      </c>
+        <v>803</v>
+      </c>
+      <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
-        <v>72</v>
+        <v>804</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
@@ -25402,18 +25501,20 @@
         <v>72</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>839</v>
+        <v>95</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>840</v>
+        <v>805</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>841</v>
-      </c>
-      <c r="N218" s="2"/>
+        <v>806</v>
+      </c>
+      <c r="N218" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O218" s="2"/>
       <c r="P218" t="s" s="2">
         <v>72</v>
@@ -25462,63 +25563,61 @@
         <v>72</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>108</v>
+        <v>807</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>842</v>
+        <v>808</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>842</v>
+        <v>808</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
-        <v>843</v>
+        <v>809</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G219" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H219" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I219" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J219" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>844</v>
+        <v>810</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>845</v>
+        <v>811</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O219" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="O219" s="2"/>
       <c r="P219" t="s" s="2">
         <v>72</v>
       </c>
@@ -25530,7 +25629,7 @@
         <v>72</v>
       </c>
       <c r="T219" t="s" s="2">
-        <v>72</v>
+        <v>812</v>
       </c>
       <c r="U219" t="s" s="2">
         <v>72</v>
@@ -25566,27 +25665,27 @@
         <v>72</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>846</v>
+        <v>813</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH219" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI219" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>847</v>
+        <v>814</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25606,23 +25705,21 @@
         <v>72</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>848</v>
+        <v>815</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>849</v>
+        <v>816</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>850</v>
-      </c>
-      <c r="O220" t="s" s="2">
-        <v>851</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
         <v>72</v>
       </c>
@@ -25646,11 +25743,13 @@
         <v>72</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y220" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y220" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="Z220" t="s" s="2">
-        <v>852</v>
+        <v>72</v>
       </c>
       <c r="AA220" t="s" s="2">
         <v>72</v>
@@ -25668,7 +25767,7 @@
         <v>72</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>847</v>
+        <v>818</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>73</v>
@@ -25685,10 +25784,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>853</v>
+        <v>819</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>853</v>
+        <v>819</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25708,22 +25807,22 @@
         <v>72</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>854</v>
+        <v>322</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>855</v>
+        <v>820</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>856</v>
+        <v>821</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>857</v>
+        <v>325</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>858</v>
+        <v>822</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>72</v>
@@ -25736,7 +25835,7 @@
         <v>72</v>
       </c>
       <c r="T221" t="s" s="2">
-        <v>72</v>
+        <v>823</v>
       </c>
       <c r="U221" t="s" s="2">
         <v>72</v>
@@ -25772,7 +25871,7 @@
         <v>72</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>853</v>
+        <v>824</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>73</v>
@@ -25784,15 +25883,15 @@
         <v>92</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>93</v>
+        <v>327</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25803,7 +25902,7 @@
         <v>73</v>
       </c>
       <c r="G222" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H222" t="s" s="2">
         <v>72</v>
@@ -25812,20 +25911,22 @@
         <v>72</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>575</v>
+        <v>826</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>860</v>
+        <v>827</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N222" s="2"/>
+        <v>828</v>
+      </c>
+      <c r="N222" t="s" s="2">
+        <v>829</v>
+      </c>
       <c r="O222" t="s" s="2">
-        <v>861</v>
+        <v>830</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>72</v>
@@ -25874,27 +25975,27 @@
         <v>72</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI222" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>862</v>
+        <v>334</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>863</v>
+        <v>831</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>863</v>
+        <v>831</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -25991,18 +26092,18 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>864</v>
+        <v>832</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>864</v>
+        <v>832</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" t="s" s="2">
-        <v>584</v>
+        <v>73</v>
       </c>
       <c r="G224" t="s" s="2">
         <v>74</v>
@@ -26020,12 +26121,14 @@
         <v>101</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N224" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
         <v>72</v>
@@ -26091,16 +26194,14 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>864</v>
-      </c>
-      <c r="C225" t="s" s="2">
-        <v>586</v>
-      </c>
+        <v>833</v>
+      </c>
+      <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" t="s" s="2">
@@ -26116,19 +26217,19 @@
         <v>72</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>587</v>
+        <v>95</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>588</v>
+        <v>834</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>191</v>
+        <v>835</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>104</v>
+        <v>836</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
@@ -26178,37 +26279,35 @@
         <v>72</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>108</v>
+        <v>837</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH225" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>92</v>
+        <v>838</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>866</v>
+        <v>839</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>864</v>
-      </c>
-      <c r="C226" t="s" s="2">
-        <v>600</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G226" t="s" s="2">
         <v>80</v>
@@ -26220,18 +26319,20 @@
         <v>72</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>601</v>
+        <v>122</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>602</v>
+        <v>840</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N226" s="2"/>
+        <v>841</v>
+      </c>
+      <c r="N226" t="s" s="2">
+        <v>842</v>
+      </c>
       <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
         <v>72</v>
@@ -26256,13 +26357,13 @@
         <v>72</v>
       </c>
       <c r="X226" t="s" s="2">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>72</v>
+        <v>843</v>
       </c>
       <c r="Z226" t="s" s="2">
-        <v>72</v>
+        <v>442</v>
       </c>
       <c r="AA226" t="s" s="2">
         <v>72</v>
@@ -26280,31 +26381,29 @@
         <v>72</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>108</v>
+        <v>844</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH226" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI226" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>867</v>
+        <v>845</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>864</v>
-      </c>
-      <c r="C227" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>845</v>
+      </c>
+      <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
         <v>72</v>
       </c>
@@ -26322,18 +26421,20 @@
         <v>72</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>596</v>
+        <v>283</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>597</v>
+        <v>846</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N227" s="2"/>
+        <v>847</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>848</v>
+      </c>
       <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
         <v>72</v>
@@ -26382,37 +26483,35 @@
         <v>72</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>108</v>
+        <v>849</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>868</v>
+        <v>850</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>864</v>
-      </c>
-      <c r="C228" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>850</v>
+      </c>
+      <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>80</v>
@@ -26424,18 +26523,20 @@
         <v>72</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>591</v>
+        <v>95</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N228" s="2"/>
+        <v>852</v>
+      </c>
+      <c r="N228" t="s" s="2">
+        <v>853</v>
+      </c>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
         <v>72</v>
@@ -26484,27 +26585,27 @@
         <v>72</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>108</v>
+        <v>854</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH228" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI228" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>870</v>
+        <v>855</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -26512,10 +26613,10 @@
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G229" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H229" t="s" s="2">
         <v>72</v>
@@ -26524,21 +26625,23 @@
         <v>72</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>161</v>
+        <v>856</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>605</v>
+        <v>857</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>606</v>
+        <v>858</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O229" s="2"/>
+        <v>859</v>
+      </c>
+      <c r="O229" t="s" s="2">
+        <v>860</v>
+      </c>
       <c r="P229" t="s" s="2">
         <v>72</v>
       </c>
@@ -26562,13 +26665,13 @@
         <v>72</v>
       </c>
       <c r="X229" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>607</v>
+        <v>72</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>608</v>
+        <v>72</v>
       </c>
       <c r="AA229" t="s" s="2">
         <v>72</v>
@@ -26586,16 +26689,16 @@
         <v>72</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>609</v>
+        <v>855</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH229" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>610</v>
+        <v>92</v>
       </c>
       <c r="AJ229" t="s" s="2">
         <v>93</v>
@@ -26603,10 +26706,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26614,7 +26717,7 @@
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>80</v>
@@ -26626,23 +26729,19 @@
         <v>72</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K230" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>612</v>
+        <v>96</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N230" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O230" t="s" s="2">
-        <v>615</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N230" s="2"/>
+      <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
         <v>72</v>
       </c>
@@ -26690,7 +26789,7 @@
         <v>72</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>616</v>
+        <v>98</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>73</v>
@@ -26699,54 +26798,52 @@
         <v>80</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G231" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H231" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I231" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>618</v>
+        <v>102</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>619</v>
+        <v>103</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="O231" t="s" s="2">
-        <v>621</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
         <v>72</v>
       </c>
@@ -26770,53 +26867,55 @@
         <v>72</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>622</v>
+        <v>72</v>
       </c>
       <c r="Z231" t="s" s="2">
-        <v>623</v>
+        <v>72</v>
       </c>
       <c r="AA231" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB231" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC231" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD231" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>624</v>
+        <v>108</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH231" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI231" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>873</v>
-      </c>
-      <c r="C232" s="2"/>
+        <v>862</v>
+      </c>
+      <c r="C232" t="s" s="2">
+        <v>864</v>
+      </c>
       <c r="D232" t="s" s="2">
         <v>72</v>
       </c>
@@ -26834,20 +26933,18 @@
         <v>72</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>626</v>
+        <v>865</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>627</v>
+        <v>866</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N232" t="s" s="2">
-        <v>629</v>
-      </c>
+        <v>867</v>
+      </c>
+      <c r="N232" s="2"/>
       <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
         <v>72</v>
@@ -26896,29 +26993,31 @@
         <v>72</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>630</v>
+        <v>108</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH232" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI232" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>874</v>
-      </c>
-      <c r="C233" s="2"/>
+        <v>862</v>
+      </c>
+      <c r="C233" t="s" s="2">
+        <v>869</v>
+      </c>
       <c r="D233" t="s" s="2">
         <v>72</v>
       </c>
@@ -26936,20 +27035,18 @@
         <v>72</v>
       </c>
       <c r="J233" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>322</v>
+        <v>870</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>632</v>
+        <v>871</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>872</v>
+      </c>
+      <c r="N233" s="2"/>
       <c r="O233" s="2"/>
       <c r="P233" t="s" s="2">
         <v>72</v>
@@ -26998,29 +27095,31 @@
         <v>72</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>634</v>
+        <v>108</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH233" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI233" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>327</v>
+        <v>109</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="C234" s="2"/>
+        <v>862</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>874</v>
+      </c>
       <c r="D234" t="s" s="2">
         <v>72</v>
       </c>
@@ -27041,20 +27140,16 @@
         <v>72</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>636</v>
+        <v>875</v>
       </c>
       <c r="L234" t="s" s="2">
         <v>876</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O234" t="s" s="2">
         <v>877</v>
       </c>
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
       <c r="P234" t="s" s="2">
         <v>72</v>
       </c>
@@ -27102,19 +27197,19 @@
         <v>72</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>875</v>
+        <v>108</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH234" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI234" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="235">
@@ -27126,7 +27221,7 @@
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
-        <v>72</v>
+        <v>879</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" t="s" s="2">
@@ -27139,13 +27234,13 @@
         <v>72</v>
       </c>
       <c r="I235" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>879</v>
+        <v>101</v>
       </c>
       <c r="L235" t="s" s="2">
         <v>880</v>
@@ -27154,10 +27249,10 @@
         <v>881</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>793</v>
+        <v>104</v>
       </c>
       <c r="O235" t="s" s="2">
-        <v>882</v>
+        <v>280</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>72</v>
@@ -27206,7 +27301,7 @@
         <v>72</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>73</v>
@@ -27218,6 +27313,1646 @@
         <v>92</v>
       </c>
       <c r="AJ235" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="C236" s="2"/>
+      <c r="D236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E236" s="2"/>
+      <c r="F236" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G236" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K236" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L236" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="M236" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="N236" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="O236" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="P236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q236" s="2"/>
+      <c r="R236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X236" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Y236" s="2"/>
+      <c r="Z236" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="AA236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE236" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF236" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="AG236" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH236" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI236" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ236" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="B237" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="C237" s="2"/>
+      <c r="D237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E237" s="2"/>
+      <c r="F237" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G237" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K237" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="L237" t="s" s="2">
+        <v>891</v>
+      </c>
+      <c r="M237" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="N237" t="s" s="2">
+        <v>893</v>
+      </c>
+      <c r="O237" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="P237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q237" s="2"/>
+      <c r="R237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE237" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF237" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="AG237" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH237" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI237" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ237" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="B238" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="C238" s="2"/>
+      <c r="D238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E238" s="2"/>
+      <c r="F238" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G238" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K238" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L238" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="M238" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N238" s="2"/>
+      <c r="O238" t="s" s="2">
+        <v>897</v>
+      </c>
+      <c r="P238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q238" s="2"/>
+      <c r="R238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE238" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF238" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="AG238" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH238" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI238" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ238" t="s" s="2">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="B239" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="C239" s="2"/>
+      <c r="D239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E239" s="2"/>
+      <c r="F239" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G239" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K239" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L239" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M239" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N239" s="2"/>
+      <c r="O239" s="2"/>
+      <c r="P239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q239" s="2"/>
+      <c r="R239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF239" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG239" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH239" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI239" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ239" t="s" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="B240" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="C240" s="2"/>
+      <c r="D240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E240" s="2"/>
+      <c r="F240" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="G240" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K240" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L240" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M240" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
+      <c r="P240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q240" s="2"/>
+      <c r="R240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB240" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AC240" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AD240" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE240" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF240" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG240" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH240" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI240" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ240" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s" s="2">
+        <v>901</v>
+      </c>
+      <c r="B241" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="C241" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="D241" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="E241" s="2"/>
+      <c r="F241" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G241" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K241" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L241" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M241" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O241" s="2"/>
+      <c r="P241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q241" s="2"/>
+      <c r="R241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE241" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF241" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG241" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH241" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI241" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ241" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="B242" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="C242" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="D242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E242" s="2"/>
+      <c r="F242" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G242" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K242" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L242" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M242" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="N242" s="2"/>
+      <c r="O242" s="2"/>
+      <c r="P242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q242" s="2"/>
+      <c r="R242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE242" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF242" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG242" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH242" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI242" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ242" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="B243" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="C243" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="D243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E243" s="2"/>
+      <c r="F243" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G243" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K243" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L243" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M243" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N243" s="2"/>
+      <c r="O243" s="2"/>
+      <c r="P243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q243" s="2"/>
+      <c r="R243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE243" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF243" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG243" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH243" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI243" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ243" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="B244" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="C244" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="D244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E244" s="2"/>
+      <c r="F244" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G244" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K244" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="L244" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="M244" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="N244" s="2"/>
+      <c r="O244" s="2"/>
+      <c r="P244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q244" s="2"/>
+      <c r="R244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE244" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF244" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AG244" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH244" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI244" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ244" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="B245" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="C245" s="2"/>
+      <c r="D245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E245" s="2"/>
+      <c r="F245" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G245" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J245" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K245" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L245" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M245" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N245" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="O245" s="2"/>
+      <c r="P245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q245" s="2"/>
+      <c r="R245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X245" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Y245" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="Z245" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AA245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE245" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF245" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AG245" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH245" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI245" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AJ245" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="B246" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="C246" s="2"/>
+      <c r="D246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E246" s="2"/>
+      <c r="F246" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G246" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J246" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K246" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L246" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M246" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N246" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="O246" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="P246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q246" s="2"/>
+      <c r="R246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE246" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF246" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="AG246" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH246" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI246" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ246" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="B247" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="C247" s="2"/>
+      <c r="D247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E247" s="2"/>
+      <c r="F247" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G247" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I247" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J247" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K247" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L247" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="M247" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="N247" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="O247" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="P247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q247" s="2"/>
+      <c r="R247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X247" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="Y247" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="Z247" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AA247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE247" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF247" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AG247" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH247" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI247" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ247" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="B248" t="s" s="2">
+        <v>909</v>
+      </c>
+      <c r="C248" s="2"/>
+      <c r="D248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E248" s="2"/>
+      <c r="F248" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J248" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K248" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L248" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M248" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N248" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="O248" s="2"/>
+      <c r="P248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q248" s="2"/>
+      <c r="R248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE248" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF248" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="AG248" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH248" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI248" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ248" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="B249" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="C249" s="2"/>
+      <c r="D249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E249" s="2"/>
+      <c r="F249" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G249" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J249" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K249" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L249" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="M249" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="N249" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O249" s="2"/>
+      <c r="P249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q249" s="2"/>
+      <c r="R249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE249" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF249" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AG249" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH249" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI249" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ249" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="B250" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="C250" s="2"/>
+      <c r="D250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E250" s="2"/>
+      <c r="F250" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G250" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K250" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L250" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="M250" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N250" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="O250" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="P250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q250" s="2"/>
+      <c r="R250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE250" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF250" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="AG250" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH250" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI250" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ250" t="s" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="B251" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="C251" s="2"/>
+      <c r="D251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E251" s="2"/>
+      <c r="F251" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="G251" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="I251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="J251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="K251" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="L251" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="M251" t="s" s="2">
+        <v>917</v>
+      </c>
+      <c r="N251" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="O251" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="P251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q251" s="2"/>
+      <c r="R251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE251" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF251" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="AG251" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AH251" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI251" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AJ251" t="s" s="2">
         <v>334</v>
       </c>
     </row>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-05T13:18:43+00:00</t>
+    <t>2024-02-05T15:29:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
+++ b/ig/sd-questionnaire/StructureDefinition-ror-organization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8115" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7607" uniqueCount="883">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T11:08:12+00:00</t>
+    <t>2024-02-15T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2030,7 +2030,7 @@
 </t>
   </si>
   <si>
-    <t>adresseEJ : Adresse géopostale de l'entité juridique ou adresseEG : Adresse(s) géopostale(s) de l'entité géographique.</t>
+    <t>adresseEJ (EJ) : Adresse géopostale du siège de l'entité juridique</t>
   </si>
   <si>
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
@@ -2111,325 +2111,214 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J124-Commune/FHIR/JDV-J124-Commune</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J230-CommuneOM-ROR/FHIR/JDV-J230-CommuneOM-ROR</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>Organization.address.extension:ror-organization-geolocation</t>
-  </si>
-  <si>
-    <t>ror-organization-geolocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {geolocation}
+    <t>Organization.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>Organization.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>Organization.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>Organization.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>Organization.address.line.id</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension:careOf</t>
+  </si>
+  <si>
+    <t>careOf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-careOf}
 </t>
   </si>
   <si>
-    <t>extension pour définir les données de géolocalisation de l'EG</t>
-  </si>
-  <si>
-    <t>The absolute geographic location of the Location, expressed using the WGS84 datum (This is the same co-ordinate system used in KML).</t>
-  </si>
-  <si>
-    <t>The extension can be further extended to include unique geolocation identifiers, confidence, altitude, etc.</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.id</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.extension</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.extension:latitude</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>Latitude with WGS84 datum</t>
-  </si>
-  <si>
-    <t>Latitude. The value domain and the interpretation are the same as for the text of the latitude element in KML (see notes below).</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.extension:latitude.id</t>
-  </si>
-  <si>
-    <t>Organization.address.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.extension:latitude.extension</t>
-  </si>
-  <si>
-    <t>Organization.address.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.extension:latitude.url</t>
-  </si>
-  <si>
-    <t>Organization.address.extension.extension.url</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.extension:latitude.value[x]</t>
-  </si>
-  <si>
-    <t>Organization.address.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
+    <t>pointRemise (Adresse)</t>
+  </si>
+  <si>
+    <t>The name of the party who will take receipt at the specified address, and will take on responsibility for ensuring delivery to the target recipient.</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension:additionalLocator</t>
+  </si>
+  <si>
+    <t>additionalLocator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-additionalLocator}
 </t>
   </si>
   <si>
-    <t>Organization.address.extension:ror-organization-geolocation.extension:longitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>Longitude with WGS84 datum</t>
-  </si>
-  <si>
-    <t>Longitude. The value domain and the interpretation are the same as for the text of the longitude element in KML (see notes below).</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.extension:longitude.id</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.extension:longitude.extension</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.extension:longitude.url</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.extension:longitude.value[x]</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.extension:ror-confidence-geolocation</t>
-  </si>
-  <si>
-    <t>ror-confidence-geolocation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-confidence-geolocation}
+    <t>complementPointGeographique (Adresse)</t>
+  </si>
+  <si>
+    <t>This can be a unit designator, such as apartment number, suite number, or floor. There may be several unit designators in an address (e.g., "3rd floor, Appt. 342"). This can also be a designator pointing away from the location, rather than specifying a smaller location within some larger one (e.g., Dutch "t.o." means "opposite to" for house boats located across the street facing houses).</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension:houseNumber</t>
+  </si>
+  <si>
+    <t>houseNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-houseNumber}
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR. Il s'agit d'une information supplémentaire pour signaler si la longitude et la latitude sont fiables.</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/geolocation</t>
-  </si>
-  <si>
-    <t>Organization.address.extension:ror-organization-geolocation.value[x]</t>
+    <t>numeroVoie(Adresse)</t>
+  </si>
+  <si>
+    <t>The number of a building, house or lot alongside the street. Also known as "primary street number". This does not number the street but rather the building.</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension:buildingNumberSuffix</t>
+  </si>
+  <si>
+    <t>buildingNumberSuffix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-buildingNumberSuffix}
+</t>
+  </si>
+  <si>
+    <t>(Adresse)</t>
+  </si>
+  <si>
+    <t>Any alphabetic character, fraction or other text that may appear after the numeric portion of a building number.</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension:streetNameType</t>
+  </si>
+  <si>
+    <t>streetNameType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {iso21090-ADXP-streetNameType}
+</t>
+  </si>
+  <si>
+    <t>typeVoie (Adresse)</t>
+  </si>
+  <si>
+    <t>The designation given to the street. (e.g. Street, Avenue, Crescent, etc.).</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension:streetNameType.id</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension.id</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension:streetNameType.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension.extension</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension:streetNameType.url</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-streetNameType</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension:streetNameType.value[x]</t>
+  </si>
+  <si>
+    <t>Organization.address.line.extension.value[x]</t>
   </si>
   <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>Organization.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>Organization.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>Organization.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>A renderable, unencoded form.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>Organization.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>Organization.address.line.id</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension:careOf</t>
-  </si>
-  <si>
-    <t>careOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-careOf}
-</t>
-  </si>
-  <si>
-    <t>pointRemise (Adresse)</t>
-  </si>
-  <si>
-    <t>The name of the party who will take receipt at the specified address, and will take on responsibility for ensuring delivery to the target recipient.</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension:additionalLocator</t>
-  </si>
-  <si>
-    <t>additionalLocator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-additionalLocator}
-</t>
-  </si>
-  <si>
-    <t>complementPointGeographique (Adresse)</t>
-  </si>
-  <si>
-    <t>This can be a unit designator, such as apartment number, suite number, or floor. There may be several unit designators in an address (e.g., "3rd floor, Appt. 342"). This can also be a designator pointing away from the location, rather than specifying a smaller location within some larger one (e.g., Dutch "t.o." means "opposite to" for house boats located across the street facing houses).</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension:houseNumber</t>
-  </si>
-  <si>
-    <t>houseNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-houseNumber}
-</t>
-  </si>
-  <si>
-    <t>numeroVoie(Adresse)</t>
-  </si>
-  <si>
-    <t>The number of a building, house or lot alongside the street. Also known as "primary street number". This does not number the street but rather the building.</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension:buildingNumberSuffix</t>
-  </si>
-  <si>
-    <t>buildingNumberSuffix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-buildingNumberSuffix}
-</t>
-  </si>
-  <si>
-    <t>(Adresse)</t>
-  </si>
-  <si>
-    <t>Any alphabetic character, fraction or other text that may appear after the numeric portion of a building number.</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension:streetNameType</t>
-  </si>
-  <si>
-    <t>streetNameType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {iso21090-ADXP-streetNameType}
-</t>
-  </si>
-  <si>
-    <t>typeVoie (Adresse)</t>
-  </si>
-  <si>
-    <t>The designation given to the street. (e.g. Street, Avenue, Crescent, etc.).</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension:streetNameType.id</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension.id</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension:streetNameType.extension</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension.extension</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension:streetNameType.url</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-streetNameType</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension:streetNameType.value[x]</t>
-  </si>
-  <si>
-    <t>Organization.address.line.extension.value[x]</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J219-TypeVoie-ROR/FHIR/JDV-J219-TypeVoie-ROR</t>
@@ -3214,7 +3103,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ251"/>
+  <dimension ref="A1:AJ235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3223,8 +3112,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="91.7109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="49.28125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="71.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.62109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="45.6484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -21621,11 +21510,9 @@
         <v>665</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="C180" t="s" s="2">
-        <v>666</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
         <v>72</v>
       </c>
@@ -21640,24 +21527,26 @@
         <v>72</v>
       </c>
       <c r="I180" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L180" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="M180" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="L180" t="s" s="2">
+      <c r="N180" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M180" t="s" s="2">
+      <c r="O180" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="N180" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="O180" s="2"/>
       <c r="P180" t="s" s="2">
         <v>72</v>
       </c>
@@ -21669,7 +21558,7 @@
         <v>72</v>
       </c>
       <c r="T180" t="s" s="2">
-        <v>72</v>
+        <v>670</v>
       </c>
       <c r="U180" t="s" s="2">
         <v>72</v>
@@ -21681,13 +21570,13 @@
         <v>72</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Y180" t="s" s="2">
-        <v>72</v>
+        <v>671</v>
       </c>
       <c r="Z180" t="s" s="2">
-        <v>72</v>
+        <v>672</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>72</v>
@@ -21705,27 +21594,27 @@
         <v>72</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>108</v>
+        <v>673</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH180" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI180" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>649</v>
+        <v>674</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -21745,18 +21634,20 @@
         <v>72</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>96</v>
+        <v>675</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N181" s="2"/>
+        <v>676</v>
+      </c>
+      <c r="N181" t="s" s="2">
+        <v>677</v>
+      </c>
       <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
         <v>72</v>
@@ -21769,7 +21660,7 @@
         <v>72</v>
       </c>
       <c r="T181" t="s" s="2">
-        <v>72</v>
+        <v>678</v>
       </c>
       <c r="U181" t="s" s="2">
         <v>72</v>
@@ -21781,13 +21672,13 @@
         <v>72</v>
       </c>
       <c r="X181" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>72</v>
+        <v>679</v>
       </c>
       <c r="Z181" t="s" s="2">
-        <v>72</v>
+        <v>680</v>
       </c>
       <c r="AA181" t="s" s="2">
         <v>72</v>
@@ -21805,7 +21696,7 @@
         <v>72</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>98</v>
+        <v>681</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>73</v>
@@ -21814,18 +21705,18 @@
         <v>80</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21833,10 +21724,10 @@
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
-        <v>584</v>
+        <v>73</v>
       </c>
       <c r="G182" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H182" t="s" s="2">
         <v>72</v>
@@ -21845,19 +21736,23 @@
         <v>72</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>184</v>
+        <v>683</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N182" s="2"/>
-      <c r="O182" s="2"/>
+        <v>684</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="O182" t="s" s="2">
+        <v>686</v>
+      </c>
       <c r="P182" t="s" s="2">
         <v>72</v>
       </c>
@@ -21869,7 +21764,7 @@
         <v>72</v>
       </c>
       <c r="T182" t="s" s="2">
-        <v>72</v>
+        <v>687</v>
       </c>
       <c r="U182" t="s" s="2">
         <v>72</v>
@@ -21893,52 +21788,50 @@
         <v>72</v>
       </c>
       <c r="AB182" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC182" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD182" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>108</v>
+        <v>688</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH182" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI182" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>673</v>
+        <v>689</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="C183" t="s" s="2">
-        <v>674</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H183" t="s" s="2">
         <v>72</v>
@@ -21947,19 +21840,19 @@
         <v>72</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>104</v>
+        <v>476</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
@@ -21973,7 +21866,7 @@
         <v>72</v>
       </c>
       <c r="T183" t="s" s="2">
-        <v>72</v>
+        <v>692</v>
       </c>
       <c r="U183" t="s" s="2">
         <v>72</v>
@@ -22009,7 +21902,7 @@
         <v>72</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>108</v>
+        <v>693</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>73</v>
@@ -22021,15 +21914,15 @@
         <v>92</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>678</v>
+        <v>694</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -22126,10 +22019,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -22140,7 +22033,7 @@
         <v>73</v>
       </c>
       <c r="G185" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H185" t="s" s="2">
         <v>72</v>
@@ -22228,18 +22121,20 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="C186" s="2"/>
+        <v>695</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>697</v>
+      </c>
       <c r="D186" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E186" s="2"/>
       <c r="F186" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G186" t="s" s="2">
         <v>80</v>
@@ -22254,24 +22149,22 @@
         <v>72</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>122</v>
+        <v>698</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>654</v>
+        <v>699</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>674</v>
+        <v>72</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>72</v>
@@ -22313,35 +22206,37 @@
         <v>72</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>658</v>
+        <v>108</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH186" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ186" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="C187" s="2"/>
+        <v>695</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>702</v>
+      </c>
       <c r="D187" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E187" s="2"/>
       <c r="F187" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G187" t="s" s="2">
         <v>80</v>
@@ -22356,13 +22251,13 @@
         <v>72</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>685</v>
+        <v>703</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>662</v>
+        <v>705</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -22413,37 +22308,37 @@
         <v>72</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>664</v>
+        <v>108</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH187" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI187" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ187" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>651</v>
+        <v>695</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="D188" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E188" s="2"/>
       <c r="F188" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G188" t="s" s="2">
         <v>80</v>
@@ -22458,17 +22353,15 @@
         <v>72</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>101</v>
+        <v>708</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>688</v>
+        <v>709</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>710</v>
+      </c>
+      <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
         <v>72</v>
@@ -22534,12 +22427,14 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>690</v>
+        <v>711</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>678</v>
-      </c>
-      <c r="C189" s="2"/>
+        <v>695</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>712</v>
+      </c>
       <c r="D189" t="s" s="2">
         <v>72</v>
       </c>
@@ -22560,13 +22455,13 @@
         <v>72</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>95</v>
+        <v>713</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>96</v>
+        <v>714</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>97</v>
+        <v>715</v>
       </c>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
@@ -22617,38 +22512,40 @@
         <v>72</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH189" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>691</v>
+        <v>716</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="C190" s="2"/>
+        <v>695</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>717</v>
+      </c>
       <c r="D190" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G190" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H190" t="s" s="2">
         <v>72</v>
@@ -22660,17 +22557,15 @@
         <v>72</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>101</v>
+        <v>718</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>102</v>
+        <v>719</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N190" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="P190" t="s" s="2">
         <v>72</v>
@@ -22707,16 +22602,16 @@
         <v>72</v>
       </c>
       <c r="AB190" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC190" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD190" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>108</v>
@@ -22736,10 +22631,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>692</v>
+        <v>721</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>682</v>
+        <v>722</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22747,7 +22642,7 @@
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G191" t="s" s="2">
         <v>80</v>
@@ -22762,24 +22657,22 @@
         <v>72</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>654</v>
+        <v>96</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N191" s="2"/>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>687</v>
+        <v>72</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>72</v>
@@ -22821,10 +22714,10 @@
         <v>72</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>658</v>
+        <v>98</v>
       </c>
       <c r="AG191" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH191" t="s" s="2">
         <v>80</v>
@@ -22838,21 +22731,21 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G192" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H192" t="s" s="2">
         <v>72</v>
@@ -22864,15 +22757,17 @@
         <v>72</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>685</v>
+        <v>101</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>661</v>
+        <v>102</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N192" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
         <v>72</v>
@@ -22909,49 +22804,47 @@
         <v>72</v>
       </c>
       <c r="AB192" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC192" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD192" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>664</v>
+        <v>108</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH192" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI192" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>694</v>
+        <v>725</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="C193" t="s" s="2">
-        <v>695</v>
-      </c>
+        <v>726</v>
+      </c>
+      <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>80</v>
@@ -22966,22 +22859,24 @@
         <v>72</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>696</v>
+        <v>122</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>184</v>
+        <v>654</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="N193" s="2"/>
+        <v>655</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q193" s="2"/>
       <c r="R193" t="s" s="2">
-        <v>72</v>
+        <v>727</v>
       </c>
       <c r="S193" t="s" s="2">
         <v>72</v>
@@ -23023,27 +22918,27 @@
         <v>72</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>108</v>
+        <v>658</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AH193" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -23051,7 +22946,7 @@
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G194" t="s" s="2">
         <v>80</v>
@@ -23066,24 +22961,22 @@
         <v>72</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>122</v>
+        <v>730</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>656</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="N194" s="2"/>
       <c r="O194" s="2"/>
       <c r="P194" t="s" s="2">
         <v>72</v>
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>699</v>
+        <v>72</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>72</v>
@@ -23101,53 +22994,51 @@
         <v>72</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y194" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="Y194" s="2"/>
       <c r="Z194" t="s" s="2">
-        <v>72</v>
+        <v>731</v>
       </c>
       <c r="AA194" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB194" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC194" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="AC194" s="2"/>
       <c r="AD194" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>72</v>
+        <v>733</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="AG194" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH194" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ194" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>700</v>
+        <v>734</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="C195" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>735</v>
+      </c>
       <c r="D195" t="s" s="2">
         <v>72</v>
       </c>
@@ -23156,7 +23047,7 @@
         <v>73</v>
       </c>
       <c r="G195" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H195" t="s" s="2">
         <v>72</v>
@@ -23168,7 +23059,7 @@
         <v>72</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>701</v>
+        <v>95</v>
       </c>
       <c r="L195" t="s" s="2">
         <v>661</v>
@@ -23201,13 +23092,13 @@
         <v>72</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>72</v>
+        <v>736</v>
       </c>
       <c r="Z195" t="s" s="2">
-        <v>72</v>
+        <v>737</v>
       </c>
       <c r="AA195" t="s" s="2">
         <v>72</v>
@@ -23242,12 +23133,14 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>702</v>
+        <v>738</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="C196" s="2"/>
+        <v>695</v>
+      </c>
+      <c r="C196" t="s" s="2">
+        <v>739</v>
+      </c>
       <c r="D196" t="s" s="2">
         <v>72</v>
       </c>
@@ -23262,26 +23155,22 @@
         <v>72</v>
       </c>
       <c r="I196" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J196" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>161</v>
+        <v>740</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>703</v>
+        <v>741</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="N196" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="O196" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="N196" s="2"/>
+      <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
         <v>72</v>
       </c>
@@ -23293,7 +23182,7 @@
         <v>72</v>
       </c>
       <c r="T196" t="s" s="2">
-        <v>707</v>
+        <v>72</v>
       </c>
       <c r="U196" t="s" s="2">
         <v>72</v>
@@ -23305,13 +23194,13 @@
         <v>72</v>
       </c>
       <c r="X196" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>708</v>
+        <v>72</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>709</v>
+        <v>72</v>
       </c>
       <c r="AA196" t="s" s="2">
         <v>72</v>
@@ -23329,29 +23218,31 @@
         <v>72</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>710</v>
+        <v>108</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH196" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI196" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ196" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>711</v>
-      </c>
-      <c r="C197" s="2"/>
+        <v>695</v>
+      </c>
+      <c r="C197" t="s" s="2">
+        <v>744</v>
+      </c>
       <c r="D197" t="s" s="2">
         <v>72</v>
       </c>
@@ -23360,7 +23251,7 @@
         <v>73</v>
       </c>
       <c r="G197" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H197" t="s" s="2">
         <v>72</v>
@@ -23369,20 +23260,18 @@
         <v>72</v>
       </c>
       <c r="J197" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>161</v>
+        <v>745</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>713</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>714</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="N197" s="2"/>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
         <v>72</v>
@@ -23395,7 +23284,7 @@
         <v>72</v>
       </c>
       <c r="T197" t="s" s="2">
-        <v>715</v>
+        <v>72</v>
       </c>
       <c r="U197" t="s" s="2">
         <v>72</v>
@@ -23407,13 +23296,13 @@
         <v>72</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>716</v>
+        <v>72</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>717</v>
+        <v>72</v>
       </c>
       <c r="AA197" t="s" s="2">
         <v>72</v>
@@ -23431,29 +23320,31 @@
         <v>72</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>718</v>
+        <v>108</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH197" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI197" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ197" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>719</v>
+        <v>748</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>719</v>
-      </c>
-      <c r="C198" s="2"/>
+        <v>695</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>749</v>
+      </c>
       <c r="D198" t="s" s="2">
         <v>72</v>
       </c>
@@ -23462,7 +23353,7 @@
         <v>73</v>
       </c>
       <c r="G198" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H198" t="s" s="2">
         <v>72</v>
@@ -23471,23 +23362,19 @@
         <v>72</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>95</v>
+        <v>750</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>720</v>
+        <v>751</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>722</v>
-      </c>
-      <c r="O198" t="s" s="2">
-        <v>723</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="N198" s="2"/>
+      <c r="O198" s="2"/>
       <c r="P198" t="s" s="2">
         <v>72</v>
       </c>
@@ -23499,7 +23386,7 @@
         <v>72</v>
       </c>
       <c r="T198" t="s" s="2">
-        <v>724</v>
+        <v>72</v>
       </c>
       <c r="U198" t="s" s="2">
         <v>72</v>
@@ -23535,27 +23422,27 @@
         <v>72</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>725</v>
+        <v>108</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH198" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI198" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>726</v>
+        <v>753</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23566,7 +23453,7 @@
         <v>73</v>
       </c>
       <c r="G199" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H199" t="s" s="2">
         <v>72</v>
@@ -23575,20 +23462,18 @@
         <v>72</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K199" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>727</v>
+        <v>566</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="N199" s="2"/>
       <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
         <v>72</v>
@@ -23601,7 +23486,7 @@
         <v>72</v>
       </c>
       <c r="T199" t="s" s="2">
-        <v>729</v>
+        <v>72</v>
       </c>
       <c r="U199" t="s" s="2">
         <v>72</v>
@@ -23610,7 +23495,7 @@
         <v>72</v>
       </c>
       <c r="W199" t="s" s="2">
-        <v>72</v>
+        <v>567</v>
       </c>
       <c r="X199" t="s" s="2">
         <v>72</v>
@@ -23637,31 +23522,31 @@
         <v>72</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>730</v>
+        <v>568</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH199" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI199" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>731</v>
+        <v>754</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>731</v>
+        <v>754</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
-        <v>72</v>
+        <v>755</v>
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
@@ -23677,18 +23562,20 @@
         <v>72</v>
       </c>
       <c r="J200" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K200" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>96</v>
+        <v>756</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N200" s="2"/>
+        <v>757</v>
+      </c>
+      <c r="N200" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
         <v>72</v>
@@ -23701,7 +23588,7 @@
         <v>72</v>
       </c>
       <c r="T200" t="s" s="2">
-        <v>72</v>
+        <v>758</v>
       </c>
       <c r="U200" t="s" s="2">
         <v>72</v>
@@ -23737,7 +23624,7 @@
         <v>72</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>98</v>
+        <v>759</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>73</v>
@@ -23746,29 +23633,29 @@
         <v>80</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>732</v>
+        <v>760</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>732</v>
+        <v>760</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
-        <v>100</v>
+        <v>761</v>
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G201" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H201" t="s" s="2">
         <v>72</v>
@@ -23777,19 +23664,19 @@
         <v>72</v>
       </c>
       <c r="J201" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>102</v>
+        <v>762</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>103</v>
+        <v>763</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>104</v>
+        <v>764</v>
       </c>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
@@ -23803,7 +23690,7 @@
         <v>72</v>
       </c>
       <c r="T201" t="s" s="2">
-        <v>72</v>
+        <v>765</v>
       </c>
       <c r="U201" t="s" s="2">
         <v>72</v>
@@ -23827,45 +23714,43 @@
         <v>72</v>
       </c>
       <c r="AB201" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC201" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD201" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>108</v>
+        <v>766</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH201" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI201" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>733</v>
+        <v>767</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="C202" t="s" s="2">
-        <v>734</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
-        <v>72</v>
+        <v>768</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" t="s" s="2">
@@ -23881,18 +23766,20 @@
         <v>72</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>735</v>
+        <v>95</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>736</v>
+        <v>769</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="N202" s="2"/>
+        <v>770</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
         <v>72</v>
@@ -23941,33 +23828,31 @@
         <v>72</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>108</v>
+        <v>771</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH202" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI202" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>738</v>
+        <v>772</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="C203" t="s" s="2">
-        <v>739</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
-        <v>72</v>
+        <v>773</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" t="s" s="2">
@@ -23983,18 +23868,20 @@
         <v>72</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>740</v>
+        <v>95</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>741</v>
+        <v>774</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>742</v>
-      </c>
-      <c r="N203" s="2"/>
+        <v>775</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O203" s="2"/>
       <c r="P203" t="s" s="2">
         <v>72</v>
@@ -24007,7 +23894,7 @@
         <v>72</v>
       </c>
       <c r="T203" t="s" s="2">
-        <v>72</v>
+        <v>776</v>
       </c>
       <c r="U203" t="s" s="2">
         <v>72</v>
@@ -24043,31 +23930,29 @@
         <v>72</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>108</v>
+        <v>777</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH203" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI203" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>743</v>
+        <v>778</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="C204" t="s" s="2">
-        <v>744</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
         <v>72</v>
       </c>
@@ -24085,18 +23970,20 @@
         <v>72</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>745</v>
+        <v>95</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>746</v>
+        <v>779</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="N204" s="2"/>
+        <v>780</v>
+      </c>
+      <c r="N204" t="s" s="2">
+        <v>781</v>
+      </c>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
         <v>72</v>
@@ -24145,31 +24032,29 @@
         <v>72</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>108</v>
+        <v>782</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH204" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI204" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>748</v>
+        <v>783</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="C205" t="s" s="2">
-        <v>749</v>
-      </c>
+        <v>783</v>
+      </c>
+      <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
         <v>72</v>
       </c>
@@ -24187,19 +24072,23 @@
         <v>72</v>
       </c>
       <c r="J205" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>750</v>
+        <v>322</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>751</v>
+        <v>784</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
+        <v>785</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>786</v>
+      </c>
       <c r="P205" t="s" s="2">
         <v>72</v>
       </c>
@@ -24211,7 +24100,7 @@
         <v>72</v>
       </c>
       <c r="T205" t="s" s="2">
-        <v>72</v>
+        <v>787</v>
       </c>
       <c r="U205" t="s" s="2">
         <v>72</v>
@@ -24247,31 +24136,29 @@
         <v>72</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>108</v>
+        <v>788</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH205" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI205" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ205" t="s" s="2">
-        <v>109</v>
+        <v>327</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>753</v>
+        <v>789</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="C206" t="s" s="2">
-        <v>754</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
         <v>72</v>
       </c>
@@ -24289,19 +24176,23 @@
         <v>72</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>755</v>
+        <v>790</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>756</v>
+        <v>791</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>757</v>
-      </c>
-      <c r="N206" s="2"/>
-      <c r="O206" s="2"/>
+        <v>792</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>793</v>
+      </c>
+      <c r="O206" t="s" s="2">
+        <v>794</v>
+      </c>
       <c r="P206" t="s" s="2">
         <v>72</v>
       </c>
@@ -24349,27 +24240,27 @@
         <v>72</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>108</v>
+        <v>789</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH206" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI206" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>109</v>
+        <v>334</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>758</v>
+        <v>795</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>759</v>
+        <v>795</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -24466,10 +24357,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>760</v>
+        <v>796</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>761</v>
+        <v>796</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -24568,10 +24459,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>762</v>
+        <v>797</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>763</v>
+        <v>797</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24579,7 +24470,7 @@
       </c>
       <c r="E209" s="2"/>
       <c r="F209" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G209" t="s" s="2">
         <v>80</v>
@@ -24591,19 +24482,19 @@
         <v>72</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>654</v>
+        <v>798</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>655</v>
+        <v>799</v>
       </c>
       <c r="N209" t="s" s="2">
-        <v>656</v>
+        <v>800</v>
       </c>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
@@ -24611,7 +24502,7 @@
       </c>
       <c r="Q209" s="2"/>
       <c r="R209" t="s" s="2">
-        <v>764</v>
+        <v>72</v>
       </c>
       <c r="S209" t="s" s="2">
         <v>72</v>
@@ -24653,27 +24544,27 @@
         <v>72</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>658</v>
+        <v>801</v>
       </c>
       <c r="AG209" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="AH209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>72</v>
+        <v>802</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>765</v>
+        <v>803</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>766</v>
+        <v>803</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24693,18 +24584,20 @@
         <v>72</v>
       </c>
       <c r="J210" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>701</v>
+        <v>122</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>661</v>
+        <v>804</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N210" s="2"/>
+        <v>805</v>
+      </c>
+      <c r="N210" t="s" s="2">
+        <v>806</v>
+      </c>
       <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
         <v>72</v>
@@ -24729,27 +24622,31 @@
         <v>72</v>
       </c>
       <c r="X210" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y210" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="Y210" t="s" s="2">
+        <v>807</v>
+      </c>
       <c r="Z210" t="s" s="2">
-        <v>767</v>
+        <v>442</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB210" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="AC210" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="AC210" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="AD210" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>769</v>
+        <v>72</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>664</v>
+        <v>808</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>73</v>
@@ -24766,14 +24663,12 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>770</v>
+        <v>809</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>766</v>
-      </c>
-      <c r="C211" t="s" s="2">
-        <v>771</v>
-      </c>
+        <v>809</v>
+      </c>
+      <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
         <v>72</v>
       </c>
@@ -24791,18 +24686,20 @@
         <v>72</v>
       </c>
       <c r="J211" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>95</v>
+        <v>283</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>661</v>
+        <v>810</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>662</v>
-      </c>
-      <c r="N211" s="2"/>
+        <v>811</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>812</v>
+      </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
         <v>72</v>
@@ -24827,13 +24724,13 @@
         <v>72</v>
       </c>
       <c r="X211" t="s" s="2">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="Y211" t="s" s="2">
-        <v>772</v>
+        <v>72</v>
       </c>
       <c r="Z211" t="s" s="2">
-        <v>773</v>
+        <v>72</v>
       </c>
       <c r="AA211" t="s" s="2">
         <v>72</v>
@@ -24851,7 +24748,7 @@
         <v>72</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>664</v>
+        <v>813</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>73</v>
@@ -24868,14 +24765,12 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>774</v>
+        <v>814</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="C212" t="s" s="2">
-        <v>775</v>
-      </c>
+        <v>814</v>
+      </c>
+      <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
         <v>72</v>
       </c>
@@ -24893,18 +24788,20 @@
         <v>72</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>776</v>
+        <v>95</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>777</v>
+        <v>815</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="N212" s="2"/>
+        <v>816</v>
+      </c>
+      <c r="N212" t="s" s="2">
+        <v>817</v>
+      </c>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>72</v>
@@ -24953,31 +24850,29 @@
         <v>72</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>108</v>
+        <v>818</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH212" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI212" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>779</v>
+        <v>819</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="C213" t="s" s="2">
-        <v>780</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
         <v>72</v>
       </c>
@@ -24998,16 +24893,20 @@
         <v>72</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>781</v>
+        <v>820</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>782</v>
+        <v>821</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
+        <v>822</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="O213" t="s" s="2">
+        <v>824</v>
+      </c>
       <c r="P213" t="s" s="2">
         <v>72</v>
       </c>
@@ -25055,7 +24954,7 @@
         <v>72</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>108</v>
+        <v>819</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>73</v>
@@ -25067,19 +24966,17 @@
         <v>92</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>784</v>
+        <v>825</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="C214" t="s" s="2">
-        <v>785</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
         <v>72</v>
       </c>
@@ -25088,7 +24985,7 @@
         <v>73</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>72</v>
@@ -25100,13 +24997,13 @@
         <v>72</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>786</v>
+        <v>95</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>787</v>
+        <v>96</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>788</v>
+        <v>97</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
@@ -25157,38 +25054,38 @@
         <v>72</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI214" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>789</v>
+        <v>826</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>789</v>
+        <v>826</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G215" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H215" t="s" s="2">
         <v>72</v>
@@ -25200,15 +25097,17 @@
         <v>72</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>566</v>
+        <v>102</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N215" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="N215" t="s" s="2">
+        <v>104</v>
+      </c>
       <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
         <v>72</v>
@@ -25230,7 +25129,7 @@
         <v>72</v>
       </c>
       <c r="W215" t="s" s="2">
-        <v>567</v>
+        <v>72</v>
       </c>
       <c r="X215" t="s" s="2">
         <v>72</v>
@@ -25245,43 +25144,45 @@
         <v>72</v>
       </c>
       <c r="AB215" t="s" s="2">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="AC215" t="s" s="2">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="AD215" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>568</v>
+        <v>108</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH215" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI215" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>790</v>
+        <v>827</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="C216" s="2"/>
+        <v>826</v>
+      </c>
+      <c r="C216" t="s" s="2">
+        <v>828</v>
+      </c>
       <c r="D216" t="s" s="2">
-        <v>791</v>
+        <v>72</v>
       </c>
       <c r="E216" s="2"/>
       <c r="F216" t="s" s="2">
@@ -25297,20 +25198,18 @@
         <v>72</v>
       </c>
       <c r="J216" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>95</v>
+        <v>829</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>792</v>
+        <v>830</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="N216" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>831</v>
+      </c>
+      <c r="N216" s="2"/>
       <c r="O216" s="2"/>
       <c r="P216" t="s" s="2">
         <v>72</v>
@@ -25323,7 +25222,7 @@
         <v>72</v>
       </c>
       <c r="T216" t="s" s="2">
-        <v>794</v>
+        <v>72</v>
       </c>
       <c r="U216" t="s" s="2">
         <v>72</v>
@@ -25359,31 +25258,33 @@
         <v>72</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>795</v>
+        <v>108</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI216" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>796</v>
+        <v>832</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>796</v>
-      </c>
-      <c r="C217" s="2"/>
+        <v>826</v>
+      </c>
+      <c r="C217" t="s" s="2">
+        <v>833</v>
+      </c>
       <c r="D217" t="s" s="2">
-        <v>797</v>
+        <v>72</v>
       </c>
       <c r="E217" s="2"/>
       <c r="F217" t="s" s="2">
@@ -25399,20 +25300,18 @@
         <v>72</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>95</v>
+        <v>834</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>798</v>
+        <v>835</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>799</v>
-      </c>
-      <c r="N217" t="s" s="2">
-        <v>800</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="N217" s="2"/>
       <c r="O217" s="2"/>
       <c r="P217" t="s" s="2">
         <v>72</v>
@@ -25425,7 +25324,7 @@
         <v>72</v>
       </c>
       <c r="T217" t="s" s="2">
-        <v>801</v>
+        <v>72</v>
       </c>
       <c r="U217" t="s" s="2">
         <v>72</v>
@@ -25461,31 +25360,33 @@
         <v>72</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>802</v>
+        <v>108</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH217" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI217" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>803</v>
+        <v>837</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>803</v>
-      </c>
-      <c r="C218" s="2"/>
+        <v>826</v>
+      </c>
+      <c r="C218" t="s" s="2">
+        <v>838</v>
+      </c>
       <c r="D218" t="s" s="2">
-        <v>804</v>
+        <v>72</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
@@ -25501,20 +25402,18 @@
         <v>72</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>95</v>
+        <v>839</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>805</v>
+        <v>840</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>806</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="N218" s="2"/>
       <c r="O218" s="2"/>
       <c r="P218" t="s" s="2">
         <v>72</v>
@@ -25563,61 +25462,63 @@
         <v>72</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>807</v>
+        <v>108</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>808</v>
+        <v>842</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>808</v>
+        <v>842</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
-        <v>809</v>
+        <v>843</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G219" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H219" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I219" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J219" t="s" s="2">
         <v>81</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>810</v>
+        <v>844</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>811</v>
+        <v>845</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O219" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="O219" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="P219" t="s" s="2">
         <v>72</v>
       </c>
@@ -25629,7 +25530,7 @@
         <v>72</v>
       </c>
       <c r="T219" t="s" s="2">
-        <v>812</v>
+        <v>72</v>
       </c>
       <c r="U219" t="s" s="2">
         <v>72</v>
@@ -25665,27 +25566,27 @@
         <v>72</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>813</v>
+        <v>846</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH219" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI219" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>814</v>
+        <v>847</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>814</v>
+        <v>847</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25705,21 +25606,23 @@
         <v>72</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>95</v>
+        <v>300</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>815</v>
+        <v>848</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>816</v>
+        <v>849</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="O220" s="2"/>
+        <v>850</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>851</v>
+      </c>
       <c r="P220" t="s" s="2">
         <v>72</v>
       </c>
@@ -25743,13 +25646,11 @@
         <v>72</v>
       </c>
       <c r="X220" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y220" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="Y220" s="2"/>
       <c r="Z220" t="s" s="2">
-        <v>72</v>
+        <v>852</v>
       </c>
       <c r="AA220" t="s" s="2">
         <v>72</v>
@@ -25767,7 +25668,7 @@
         <v>72</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>818</v>
+        <v>847</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>73</v>
@@ -25784,10 +25685,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>819</v>
+        <v>853</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>819</v>
+        <v>853</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25807,22 +25708,22 @@
         <v>72</v>
       </c>
       <c r="J221" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>322</v>
+        <v>854</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>820</v>
+        <v>855</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>821</v>
+        <v>856</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>325</v>
+        <v>857</v>
       </c>
       <c r="O221" t="s" s="2">
-        <v>822</v>
+        <v>858</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>72</v>
@@ -25835,7 +25736,7 @@
         <v>72</v>
       </c>
       <c r="T221" t="s" s="2">
-        <v>823</v>
+        <v>72</v>
       </c>
       <c r="U221" t="s" s="2">
         <v>72</v>
@@ -25871,7 +25772,7 @@
         <v>72</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>824</v>
+        <v>853</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>73</v>
@@ -25883,15 +25784,15 @@
         <v>92</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>327</v>
+        <v>93</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>825</v>
+        <v>859</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>825</v>
+        <v>859</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25902,7 +25803,7 @@
         <v>73</v>
       </c>
       <c r="G222" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H222" t="s" s="2">
         <v>72</v>
@@ -25911,22 +25812,20 @@
         <v>72</v>
       </c>
       <c r="J222" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>826</v>
+        <v>575</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>827</v>
+        <v>860</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>829</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="N222" s="2"/>
       <c r="O222" t="s" s="2">
-        <v>830</v>
+        <v>861</v>
       </c>
       <c r="P222" t="s" s="2">
         <v>72</v>
@@ -25975,27 +25874,27 @@
         <v>72</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>825</v>
+        <v>859</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI222" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>334</v>
+        <v>862</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>831</v>
+        <v>863</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>831</v>
+        <v>863</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -26092,18 +25991,18 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>832</v>
+        <v>864</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E224" s="2"/>
       <c r="F224" t="s" s="2">
-        <v>73</v>
+        <v>584</v>
       </c>
       <c r="G224" t="s" s="2">
         <v>74</v>
@@ -26121,14 +26020,12 @@
         <v>101</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>104</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N224" s="2"/>
       <c r="O224" s="2"/>
       <c r="P224" t="s" s="2">
         <v>72</v>
@@ -26194,14 +26091,16 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>833</v>
+        <v>865</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="C225" s="2"/>
+        <v>864</v>
+      </c>
+      <c r="C225" t="s" s="2">
+        <v>586</v>
+      </c>
       <c r="D225" t="s" s="2">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="E225" s="2"/>
       <c r="F225" t="s" s="2">
@@ -26217,19 +26116,19 @@
         <v>72</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>95</v>
+        <v>587</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>834</v>
+        <v>588</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>835</v>
+        <v>191</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>836</v>
+        <v>104</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" t="s" s="2">
@@ -26279,35 +26178,37 @@
         <v>72</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>837</v>
+        <v>108</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH225" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI225" t="s" s="2">
-        <v>838</v>
+        <v>92</v>
       </c>
       <c r="AJ225" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>839</v>
-      </c>
-      <c r="C226" s="2"/>
+        <v>864</v>
+      </c>
+      <c r="C226" t="s" s="2">
+        <v>600</v>
+      </c>
       <c r="D226" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E226" s="2"/>
       <c r="F226" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G226" t="s" s="2">
         <v>80</v>
@@ -26319,20 +26220,18 @@
         <v>72</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>122</v>
+        <v>601</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>840</v>
+        <v>602</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>841</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>842</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="N226" s="2"/>
       <c r="O226" s="2"/>
       <c r="P226" t="s" s="2">
         <v>72</v>
@@ -26357,13 +26256,13 @@
         <v>72</v>
       </c>
       <c r="X226" t="s" s="2">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="Y226" t="s" s="2">
-        <v>843</v>
+        <v>72</v>
       </c>
       <c r="Z226" t="s" s="2">
-        <v>442</v>
+        <v>72</v>
       </c>
       <c r="AA226" t="s" s="2">
         <v>72</v>
@@ -26381,29 +26280,31 @@
         <v>72</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>844</v>
+        <v>108</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH226" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI226" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ226" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>845</v>
+        <v>867</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>845</v>
-      </c>
-      <c r="C227" s="2"/>
+        <v>864</v>
+      </c>
+      <c r="C227" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="D227" t="s" s="2">
         <v>72</v>
       </c>
@@ -26421,20 +26322,18 @@
         <v>72</v>
       </c>
       <c r="J227" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>283</v>
+        <v>596</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>846</v>
+        <v>597</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>848</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="N227" s="2"/>
       <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
         <v>72</v>
@@ -26483,35 +26382,37 @@
         <v>72</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>849</v>
+        <v>108</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>850</v>
+        <v>868</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>850</v>
-      </c>
-      <c r="C228" s="2"/>
+        <v>864</v>
+      </c>
+      <c r="C228" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="D228" t="s" s="2">
         <v>72</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>80</v>
@@ -26523,20 +26424,18 @@
         <v>72</v>
       </c>
       <c r="J228" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>95</v>
+        <v>591</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>852</v>
-      </c>
-      <c r="N228" t="s" s="2">
-        <v>853</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="N228" s="2"/>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
         <v>72</v>
@@ -26585,27 +26484,27 @@
         <v>72</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>854</v>
+        <v>108</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH228" t="s" s="2">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AI228" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -26613,10 +26512,10 @@
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G229" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H229" t="s" s="2">
         <v>72</v>
@@ -26625,23 +26524,21 @@
         <v>72</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>856</v>
+        <v>161</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>857</v>
+        <v>605</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>858</v>
+        <v>606</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="O229" t="s" s="2">
-        <v>860</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="O229" s="2"/>
       <c r="P229" t="s" s="2">
         <v>72</v>
       </c>
@@ -26665,13 +26562,13 @@
         <v>72</v>
       </c>
       <c r="X229" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>72</v>
+        <v>607</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>72</v>
+        <v>608</v>
       </c>
       <c r="AA229" t="s" s="2">
         <v>72</v>
@@ -26689,16 +26586,16 @@
         <v>72</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>855</v>
+        <v>609</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH229" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>92</v>
+        <v>610</v>
       </c>
       <c r="AJ229" t="s" s="2">
         <v>93</v>
@@ -26706,10 +26603,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26717,7 +26614,7 @@
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>80</v>
@@ -26729,19 +26626,23 @@
         <v>72</v>
       </c>
       <c r="J230" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K230" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>96</v>
+        <v>612</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N230" s="2"/>
-      <c r="O230" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="N230" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="O230" t="s" s="2">
+        <v>615</v>
+      </c>
       <c r="P230" t="s" s="2">
         <v>72</v>
       </c>
@@ -26789,7 +26690,7 @@
         <v>72</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>98</v>
+        <v>616</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>73</v>
@@ -26798,52 +26699,54 @@
         <v>80</v>
       </c>
       <c r="AI230" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="AJ230" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E231" s="2"/>
       <c r="F231" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G231" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H231" t="s" s="2">
         <v>72</v>
       </c>
       <c r="I231" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J231" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>102</v>
+        <v>618</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>103</v>
+        <v>619</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O231" s="2"/>
+        <v>620</v>
+      </c>
+      <c r="O231" t="s" s="2">
+        <v>621</v>
+      </c>
       <c r="P231" t="s" s="2">
         <v>72</v>
       </c>
@@ -26867,55 +26770,53 @@
         <v>72</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>72</v>
+        <v>622</v>
       </c>
       <c r="Z231" t="s" s="2">
-        <v>72</v>
+        <v>623</v>
       </c>
       <c r="AA231" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AB231" t="s" s="2">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="AC231" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AD231" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE231" t="s" s="2">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>108</v>
+        <v>624</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH231" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI231" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ231" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="C232" t="s" s="2">
-        <v>864</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
         <v>72</v>
       </c>
@@ -26933,18 +26834,20 @@
         <v>72</v>
       </c>
       <c r="J232" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>865</v>
+        <v>626</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>866</v>
+        <v>627</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>867</v>
-      </c>
-      <c r="N232" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="N232" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
         <v>72</v>
@@ -26993,31 +26896,29 @@
         <v>72</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>108</v>
+        <v>630</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH232" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI232" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ232" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="C233" t="s" s="2">
-        <v>869</v>
-      </c>
+        <v>874</v>
+      </c>
+      <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
         <v>72</v>
       </c>
@@ -27035,18 +26936,20 @@
         <v>72</v>
       </c>
       <c r="J233" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>870</v>
+        <v>322</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>871</v>
+        <v>632</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>872</v>
-      </c>
-      <c r="N233" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="N233" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O233" s="2"/>
       <c r="P233" t="s" s="2">
         <v>72</v>
@@ -27095,31 +26998,29 @@
         <v>72</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>108</v>
+        <v>634</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH233" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI233" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>109</v>
+        <v>327</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="C234" t="s" s="2">
-        <v>874</v>
-      </c>
+        <v>875</v>
+      </c>
+      <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
         <v>72</v>
       </c>
@@ -27140,16 +27041,20 @@
         <v>72</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>875</v>
+        <v>636</v>
       </c>
       <c r="L234" t="s" s="2">
         <v>876</v>
       </c>
       <c r="M234" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N234" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="O234" t="s" s="2">
         <v>877</v>
       </c>
-      <c r="N234" s="2"/>
-      <c r="O234" s="2"/>
       <c r="P234" t="s" s="2">
         <v>72</v>
       </c>
@@ -27197,19 +27102,19 @@
         <v>72</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>108</v>
+        <v>875</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH234" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI234" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="235">
@@ -27221,7 +27126,7 @@
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
-        <v>879</v>
+        <v>72</v>
       </c>
       <c r="E235" s="2"/>
       <c r="F235" t="s" s="2">
@@ -27234,13 +27139,13 @@
         <v>72</v>
       </c>
       <c r="I235" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="J235" t="s" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>101</v>
+        <v>879</v>
       </c>
       <c r="L235" t="s" s="2">
         <v>880</v>
@@ -27249,10 +27154,10 @@
         <v>881</v>
       </c>
       <c r="N235" t="s" s="2">
-        <v>104</v>
+        <v>793</v>
       </c>
       <c r="O235" t="s" s="2">
-        <v>280</v>
+        <v>882</v>
       </c>
       <c r="P235" t="s" s="2">
         <v>72</v>
@@ -27301,7 +27206,7 @@
         <v>72</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>73</v>
@@ -27313,1646 +27218,6 @@
         <v>92</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s" s="2">
-        <v>883</v>
-      </c>
-      <c r="B236" t="s" s="2">
-        <v>883</v>
-      </c>
-      <c r="C236" s="2"/>
-      <c r="D236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E236" s="2"/>
-      <c r="F236" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K236" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="L236" t="s" s="2">
-        <v>884</v>
-      </c>
-      <c r="M236" t="s" s="2">
-        <v>885</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>886</v>
-      </c>
-      <c r="O236" t="s" s="2">
-        <v>887</v>
-      </c>
-      <c r="P236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q236" s="2"/>
-      <c r="R236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X236" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y236" s="2"/>
-      <c r="Z236" t="s" s="2">
-        <v>888</v>
-      </c>
-      <c r="AA236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE236" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF236" t="s" s="2">
-        <v>883</v>
-      </c>
-      <c r="AG236" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI236" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ236" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s" s="2">
-        <v>889</v>
-      </c>
-      <c r="B237" t="s" s="2">
-        <v>889</v>
-      </c>
-      <c r="C237" s="2"/>
-      <c r="D237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E237" s="2"/>
-      <c r="F237" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K237" t="s" s="2">
-        <v>890</v>
-      </c>
-      <c r="L237" t="s" s="2">
-        <v>891</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>892</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>893</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>894</v>
-      </c>
-      <c r="P237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q237" s="2"/>
-      <c r="R237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE237" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF237" t="s" s="2">
-        <v>889</v>
-      </c>
-      <c r="AG237" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI237" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ237" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="B238" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="C238" s="2"/>
-      <c r="D238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E238" s="2"/>
-      <c r="F238" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G238" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K238" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="L238" t="s" s="2">
-        <v>896</v>
-      </c>
-      <c r="M238" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N238" s="2"/>
-      <c r="O238" t="s" s="2">
-        <v>897</v>
-      </c>
-      <c r="P238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q238" s="2"/>
-      <c r="R238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE238" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF238" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="AG238" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH238" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI238" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ238" t="s" s="2">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="B239" t="s" s="2">
-        <v>899</v>
-      </c>
-      <c r="C239" s="2"/>
-      <c r="D239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E239" s="2"/>
-      <c r="F239" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K239" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M239" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N239" s="2"/>
-      <c r="O239" s="2"/>
-      <c r="P239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q239" s="2"/>
-      <c r="R239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF239" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AG239" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI239" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ239" t="s" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="B240" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="C240" s="2"/>
-      <c r="D240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E240" s="2"/>
-      <c r="F240" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="G240" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K240" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L240" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N240" s="2"/>
-      <c r="O240" s="2"/>
-      <c r="P240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q240" s="2"/>
-      <c r="R240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB240" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AC240" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AD240" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE240" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AF240" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AG240" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH240" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI240" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ240" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s" s="2">
-        <v>901</v>
-      </c>
-      <c r="B241" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="C241" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="D241" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="E241" s="2"/>
-      <c r="F241" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G241" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K241" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="M241" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N241" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O241" s="2"/>
-      <c r="P241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q241" s="2"/>
-      <c r="R241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE241" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF241" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AG241" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH241" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI241" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ241" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s" s="2">
-        <v>902</v>
-      </c>
-      <c r="B242" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="C242" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="D242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E242" s="2"/>
-      <c r="F242" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G242" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K242" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="M242" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N242" s="2"/>
-      <c r="O242" s="2"/>
-      <c r="P242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q242" s="2"/>
-      <c r="R242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE242" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF242" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AG242" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH242" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI242" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ242" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="s" s="2">
-        <v>903</v>
-      </c>
-      <c r="B243" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="C243" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="D243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E243" s="2"/>
-      <c r="F243" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G243" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K243" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M243" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N243" s="2"/>
-      <c r="O243" s="2"/>
-      <c r="P243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q243" s="2"/>
-      <c r="R243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE243" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF243" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AG243" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH243" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI243" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ243" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="s" s="2">
-        <v>904</v>
-      </c>
-      <c r="B244" t="s" s="2">
-        <v>900</v>
-      </c>
-      <c r="C244" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="D244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E244" s="2"/>
-      <c r="F244" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G244" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K244" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="L244" t="s" s="2">
-        <v>905</v>
-      </c>
-      <c r="M244" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N244" s="2"/>
-      <c r="O244" s="2"/>
-      <c r="P244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q244" s="2"/>
-      <c r="R244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE244" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF244" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AG244" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH244" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI244" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ244" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="s" s="2">
-        <v>906</v>
-      </c>
-      <c r="B245" t="s" s="2">
-        <v>906</v>
-      </c>
-      <c r="C245" s="2"/>
-      <c r="D245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E245" s="2"/>
-      <c r="F245" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G245" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J245" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K245" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L245" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="M245" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N245" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O245" s="2"/>
-      <c r="P245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q245" s="2"/>
-      <c r="R245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X245" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y245" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="Z245" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="AA245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE245" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF245" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="AG245" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH245" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI245" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AJ245" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s" s="2">
-        <v>907</v>
-      </c>
-      <c r="B246" t="s" s="2">
-        <v>907</v>
-      </c>
-      <c r="C246" s="2"/>
-      <c r="D246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E246" s="2"/>
-      <c r="F246" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G246" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J246" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K246" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="L246" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="M246" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N246" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="O246" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="P246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q246" s="2"/>
-      <c r="R246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE246" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF246" t="s" s="2">
-        <v>616</v>
-      </c>
-      <c r="AG246" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH246" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI246" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ246" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="B247" t="s" s="2">
-        <v>908</v>
-      </c>
-      <c r="C247" s="2"/>
-      <c r="D247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E247" s="2"/>
-      <c r="F247" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G247" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I247" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J247" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K247" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L247" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N247" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="O247" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="P247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q247" s="2"/>
-      <c r="R247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X247" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="Y247" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="Z247" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AA247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE247" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF247" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="AG247" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH247" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI247" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ247" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="B248" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="C248" s="2"/>
-      <c r="D248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E248" s="2"/>
-      <c r="F248" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J248" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K248" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="L248" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N248" t="s" s="2">
-        <v>629</v>
-      </c>
-      <c r="O248" s="2"/>
-      <c r="P248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q248" s="2"/>
-      <c r="R248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE248" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF248" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="AG248" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH248" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI248" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ248" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="s" s="2">
-        <v>910</v>
-      </c>
-      <c r="B249" t="s" s="2">
-        <v>910</v>
-      </c>
-      <c r="C249" s="2"/>
-      <c r="D249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E249" s="2"/>
-      <c r="F249" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G249" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J249" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K249" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="L249" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="M249" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N249" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O249" s="2"/>
-      <c r="P249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q249" s="2"/>
-      <c r="R249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE249" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF249" t="s" s="2">
-        <v>634</v>
-      </c>
-      <c r="AG249" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH249" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI249" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ249" t="s" s="2">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s" s="2">
-        <v>911</v>
-      </c>
-      <c r="B250" t="s" s="2">
-        <v>911</v>
-      </c>
-      <c r="C250" s="2"/>
-      <c r="D250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E250" s="2"/>
-      <c r="F250" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G250" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K250" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="L250" t="s" s="2">
-        <v>912</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="N250" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="O250" t="s" s="2">
-        <v>913</v>
-      </c>
-      <c r="P250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q250" s="2"/>
-      <c r="R250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE250" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF250" t="s" s="2">
-        <v>911</v>
-      </c>
-      <c r="AG250" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH250" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI250" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ250" t="s" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="B251" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="C251" s="2"/>
-      <c r="D251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="E251" s="2"/>
-      <c r="F251" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G251" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="I251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="J251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K251" t="s" s="2">
-        <v>915</v>
-      </c>
-      <c r="L251" t="s" s="2">
-        <v>916</v>
-      </c>
-      <c r="M251" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="N251" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="O251" t="s" s="2">
-        <v>918</v>
-      </c>
-      <c r="P251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Q251" s="2"/>
-      <c r="R251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="S251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE251" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF251" t="s" s="2">
-        <v>914</v>
-      </c>
-      <c r="AG251" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH251" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI251" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AJ251" t="s" s="2">
         <v>334</v>
       </c>
     </row>
